--- a/planning_database_NYC_tracts_numbers.xlsx
+++ b/planning_database_NYC_tracts_numbers.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
         <v>12</v>
       </c>
       <c r="R2">
-        <v>306</v>
+        <v>641</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>357</v>
       </c>
       <c r="R3">
-        <v>2700</v>
+        <v>7392</v>
       </c>
       <c r="S3">
-        <v>976</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -637,10 +637,10 @@
         <v>75</v>
       </c>
       <c r="R4">
-        <v>256</v>
+        <v>1477</v>
       </c>
       <c r="S4">
-        <v>44</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -696,10 +696,10 @@
         <v>159</v>
       </c>
       <c r="R5">
-        <v>695</v>
+        <v>3502</v>
       </c>
       <c r="S5">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -755,10 +755,10 @@
         <v>173</v>
       </c>
       <c r="R6">
-        <v>1004</v>
+        <v>4348</v>
       </c>
       <c r="S6">
-        <v>225</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -814,10 +814,10 @@
         <v>110</v>
       </c>
       <c r="R7">
-        <v>1268</v>
+        <v>3191</v>
       </c>
       <c r="S7">
-        <v>55</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>68</v>
       </c>
       <c r="R8">
-        <v>1388</v>
+        <v>3499</v>
       </c>
       <c r="S8">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -932,10 +932,10 @@
         <v>261</v>
       </c>
       <c r="R9">
-        <v>3305</v>
+        <v>7645</v>
       </c>
       <c r="S9">
-        <v>1161</v>
+        <v>2685</v>
       </c>
     </row>
   </sheetData>
